--- a/Información/Calculos.xlsx
+++ b/Información/Calculos.xlsx
@@ -1031,50 +1031,59 @@
     </dxf>
   </dxfs>
   <tableStyles count="9">
-    <tableStyle count="3" pivot="0" name="Hoja 1-style">
+    <tableStyle count="4" pivot="0" name="Hoja 1-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Hoja 1-style 2">
+    <tableStyle count="4" pivot="0" name="Hoja 1-style 2">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Hoja 1-style 3">
+    <tableStyle count="4" pivot="0" name="Hoja 1-style 3">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Hoja 1-style 4">
+    <tableStyle count="4" pivot="0" name="Hoja 1-style 4">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Hoja 1-style 5">
+    <tableStyle count="4" pivot="0" name="Hoja 1-style 5">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Hoja 1-style 6">
+    <tableStyle count="4" pivot="0" name="Hoja 1-style 6">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Hoja 1-style 7">
+    <tableStyle count="4" pivot="0" name="Hoja 1-style 7">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Hoja 1-style 8">
+    <tableStyle count="4" pivot="0" name="Hoja 1-style 8">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Hoja 1-style 9">
+    <tableStyle count="4" pivot="0" name="Hoja 1-style 9">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>

--- a/Información/Calculos.xlsx
+++ b/Información/Calculos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="211">
   <si>
     <t>Habitaciones</t>
   </si>
@@ -638,6 +638,9 @@
   </si>
   <si>
     <t>539 USD</t>
+  </si>
+  <si>
+    <t>Columna 1</t>
   </si>
   <si>
     <t>0,8 m°2</t>
@@ -989,8 +992,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A39:H46" displayName="Piso_3_Espacio_del_Edificio" name="Piso_3_Espacio_del_Edificio" id="8">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A39:I46" displayName="Piso_3_Espacio_del_Edificio" name="Piso_3_Espacio_del_Edificio" id="8">
+  <tableColumns count="9">
     <tableColumn name="Habitaciones" id="1"/>
     <tableColumn name="Area" id="2"/>
     <tableColumn name="PC" id="3"/>
@@ -999,6 +1002,7 @@
     <tableColumn name="Impresoras 3D" id="6"/>
     <tableColumn name="Espacio total ocupado" id="7"/>
     <tableColumn name="Espacio total libre" id="8"/>
+    <tableColumn name="Columna 1" id="9"/>
   </tableColumns>
   <tableStyleInfo name="Hoja 1-style 8" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -1250,7 +1254,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>46</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>58</v>
       </c>
@@ -1542,7 +1546,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>68</v>
       </c>
@@ -1590,7 +1594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>76</v>
       </c>
@@ -1638,7 +1642,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>86</v>
       </c>
@@ -1686,7 +1690,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>96</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>105</v>
       </c>
@@ -1782,7 +1786,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>114</v>
       </c>
@@ -1830,7 +1834,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>124</v>
       </c>
@@ -1878,7 +1882,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>130</v>
       </c>
@@ -1926,7 +1930,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>140</v>
       </c>
@@ -1974,7 +1978,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>147</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>157</v>
       </c>
@@ -2070,7 +2074,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>167</v>
       </c>
@@ -2127,7 +2131,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +2178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
@@ -2221,7 +2225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>33</v>
       </c>
@@ -2268,7 +2272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
@@ -2315,7 +2319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>174</v>
       </c>
@@ -2362,7 +2366,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>182</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>187</v>
       </c>
@@ -2456,7 +2460,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>193</v>
       </c>
@@ -2520,7 +2524,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -2567,7 +2571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="22.5" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>202</v>
       </c>
@@ -2614,7 +2618,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="22.5" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>58</v>
       </c>
@@ -2661,7 +2665,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="22.5" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>68</v>
       </c>
@@ -2708,7 +2712,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="22.5" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>76</v>
       </c>
@@ -2755,7 +2759,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="22.5" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>86</v>
       </c>
@@ -2802,7 +2806,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="22.5" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>96</v>
       </c>
@@ -2849,7 +2853,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="22.5" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>105</v>
       </c>
@@ -2913,7 +2917,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" ht="22.5" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -2938,6 +2942,9 @@
       <c r="H39" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I39" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="J39" s="4" t="s">
         <v>0</v>
       </c>
@@ -2960,7 +2967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="22.5" customHeight="1">
       <c r="A40" s="7" t="s">
         <v>114</v>
       </c>
@@ -2977,7 +2984,7 @@
         <v>20</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>117</v>
@@ -2985,6 +2992,7 @@
       <c r="H40" s="7" t="s">
         <v>118</v>
       </c>
+      <c r="I40" s="9"/>
       <c r="J40" s="8" t="s">
         <v>114</v>
       </c>
@@ -3007,7 +3015,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="22.5" customHeight="1">
       <c r="A41" s="7" t="s">
         <v>124</v>
       </c>
@@ -3032,6 +3040,7 @@
       <c r="H41" s="7" t="s">
         <v>128</v>
       </c>
+      <c r="I41" s="9"/>
       <c r="J41" s="8" t="s">
         <v>124</v>
       </c>
@@ -3054,7 +3063,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="22.5" customHeight="1">
       <c r="A42" s="7" t="s">
         <v>130</v>
       </c>
@@ -3079,6 +3088,7 @@
       <c r="H42" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="I42" s="9"/>
       <c r="J42" s="8" t="s">
         <v>130</v>
       </c>
@@ -3101,7 +3111,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="22.5" customHeight="1">
       <c r="A43" s="7" t="s">
         <v>140</v>
       </c>
@@ -3126,6 +3136,9 @@
       <c r="H43" s="7" t="s">
         <v>143</v>
       </c>
+      <c r="I43" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J43" s="8" t="s">
         <v>140</v>
       </c>
@@ -3148,7 +3161,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="22.5" customHeight="1">
       <c r="A44" s="7" t="s">
         <v>147</v>
       </c>
@@ -3173,6 +3186,7 @@
       <c r="H44" s="7" t="s">
         <v>152</v>
       </c>
+      <c r="I44" s="9"/>
       <c r="J44" s="8" t="s">
         <v>147</v>
       </c>
@@ -3195,7 +3209,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="22.5" customHeight="1">
       <c r="A45" s="7" t="s">
         <v>157</v>
       </c>
@@ -3220,6 +3234,7 @@
       <c r="H45" s="7" t="s">
         <v>162</v>
       </c>
+      <c r="I45" s="9"/>
       <c r="J45" s="8" t="s">
         <v>157</v>
       </c>
@@ -3242,7 +3257,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="22.5" customHeight="1">
       <c r="A46" s="7" t="s">
         <v>167</v>
       </c>
@@ -3267,6 +3282,7 @@
       <c r="H46" s="7" t="s">
         <v>171</v>
       </c>
+      <c r="I46" s="9"/>
       <c r="J46" s="8" t="s">
         <v>167</v>
       </c>
